--- a/result.xlsx
+++ b/result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gujih\iCloudDrive\UCL CGVI\Text-guided Anomaly Detection in Videos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gujih\iCloudDrive\UCL CGVI\TGADV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8C9287-638B-4510-B218-59D5E19369F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AFB6E8-43EE-4618-91B8-42137D270F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="114">
   <si>
     <t>ApplyEyeMakeup</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>TAESD</t>
+  </si>
+  <si>
+    <t>Datasets</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -587,7 +590,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -618,6 +627,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -902,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
@@ -927,28 +954,28 @@
   <sheetData>
     <row r="2" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="I3" s="20" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="I3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="4" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
@@ -961,10 +988,10 @@
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
@@ -4817,10 +4844,10 @@
       </c>
     </row>
     <row r="106" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="23" t="s">
+      <c r="B106" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C106" s="24"/>
+      <c r="C106" s="26"/>
       <c r="D106" s="14">
         <f>SUMPRODUCT(D5:D105, G5:G105) / SUM(G5:G105)</f>
         <v>26.357277767738239</v>
@@ -4837,10 +4864,10 @@
         <f>SUM(G5:G105)</f>
         <v>13308</v>
       </c>
-      <c r="I106" s="25" t="s">
+      <c r="I106" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J106" s="26"/>
+      <c r="J106" s="28"/>
       <c r="K106" s="12">
         <f>SUMPRODUCT(K5:K105, N5:N105) / SUM(N5:N105)</f>
         <v>27.08109224184868</v>
@@ -4964,10 +4991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C0F618-43EB-4A2F-80D8-E7BEF51DC5EC}">
-  <dimension ref="B7:F19"/>
+  <dimension ref="B6:F19"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4980,85 +5007,89 @@
     <col min="7" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="17" t="s">
+    <row r="6" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="31">
         <v>26.357277767738239</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="31">
         <v>0.7542624538657573</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="32">
         <v>0.11213572951695769</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="34">
         <v>27.08109224184868</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="34">
         <v>0.80355994543225961</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="35">
         <v>8.6757895852994274E-2</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
+      <c r="B10" s="29"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
+      <c r="B11" s="29"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
+      <c r="B12" s="29"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
+      <c r="B13" s="29"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
+      <c r="B14" s="29"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
+      <c r="B15" s="29"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
+      <c r="B16" s="29"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
+      <c r="B17" s="29"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
+      <c r="B18" s="29"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
+      <c r="B19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B8:B19"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gujih\iCloudDrive\UCL CGVI\TGADV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AFB6E8-43EE-4618-91B8-42137D270F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A205C0D-30AD-4CE3-9AF0-8C32F7E83588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="117">
   <si>
     <t>ApplyEyeMakeup</t>
   </si>
@@ -379,6 +379,15 @@
   </si>
   <si>
     <t>Datasets</t>
+  </si>
+  <si>
+    <t>CV-VAE</t>
+  </si>
+  <si>
+    <t>UCF-101 + IV-VAE</t>
+  </si>
+  <si>
+    <t>UCF-101 + CV-VAE</t>
   </si>
 </sst>
 </file>
@@ -544,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -590,14 +599,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,25 +629,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N106"/>
+  <dimension ref="B2:AB106"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K117" sqref="K117"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -949,33 +940,63 @@
     <col min="12" max="12" width="12.44140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.77734375" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="3.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" style="1"/>
+    <col min="23" max="23" width="4.44140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.88671875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+    <row r="2" spans="2:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="I3" s="22" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="I3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-    </row>
-    <row r="4" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="P3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="22"/>
+      <c r="W3" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="22"/>
+    </row>
+    <row r="4" spans="2:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
@@ -988,10 +1009,10 @@
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1004,8 +1025,40 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1042,8 +1095,44 @@
       <c r="N5" s="7">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>32.485680208523803</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0.911008077241521</v>
+      </c>
+      <c r="T5" s="6">
+        <v>3.4499770048389701E-2</v>
+      </c>
+      <c r="U5" s="7">
+        <v>145</v>
+      </c>
+      <c r="W5" s="4">
+        <v>1</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>35.864016585740501</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>0.94276923109155197</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>1.52734606538533E-2</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -1080,8 +1169,28 @@
       <c r="N6" s="7">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P6" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="7"/>
+      <c r="W6" s="4">
+        <v>2</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1118,8 +1227,28 @@
       <c r="N7" s="7">
         <v>145</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P7" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="7"/>
+      <c r="W7" s="4">
+        <v>3</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1156,8 +1285,28 @@
       <c r="N8" s="7">
         <v>132</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P8" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="7"/>
+      <c r="W8" s="4">
+        <v>4</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="7"/>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1194,8 +1343,28 @@
       <c r="N9" s="7">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P9" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="7"/>
+      <c r="W9" s="4">
+        <v>5</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1232,8 +1401,28 @@
       <c r="N10" s="7">
         <v>155</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P10" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="7"/>
+      <c r="W10" s="4">
+        <v>6</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="7"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1270,8 +1459,28 @@
       <c r="N11" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P11" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="7"/>
+      <c r="W11" s="4">
+        <v>7</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1308,8 +1517,28 @@
       <c r="N12" s="10">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P12" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="10"/>
+      <c r="W12" s="4">
+        <v>8</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="10"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -1346,8 +1575,28 @@
       <c r="N13" s="10">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P13" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="10"/>
+      <c r="W13" s="4">
+        <v>9</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="10"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -1384,8 +1633,28 @@
       <c r="N14" s="10">
         <v>160</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P14" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="10"/>
+      <c r="W14" s="4">
+        <v>10</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="10"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -1422,8 +1691,28 @@
       <c r="N15" s="10">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P15" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="10"/>
+      <c r="W15" s="4">
+        <v>11</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="10"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1460,8 +1749,28 @@
       <c r="N16" s="10">
         <v>150</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P16" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="10"/>
+      <c r="W16" s="4">
+        <v>12</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="10"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -1498,8 +1807,28 @@
       <c r="N17" s="10">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P17" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="10"/>
+      <c r="W17" s="4">
+        <v>13</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="10"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -1536,8 +1865,28 @@
       <c r="N18" s="10">
         <v>109</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P18" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="10"/>
+      <c r="W18" s="4">
+        <v>14</v>
+      </c>
+      <c r="X18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="10"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -1574,8 +1923,28 @@
       <c r="N19" s="10">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P19" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="10"/>
+      <c r="W19" s="4">
+        <v>15</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="10"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -1612,8 +1981,28 @@
       <c r="N20" s="10">
         <v>155</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P20" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="10"/>
+      <c r="W20" s="4">
+        <v>16</v>
+      </c>
+      <c r="X20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="10"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -1650,8 +2039,28 @@
       <c r="N21" s="10">
         <v>163</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P21" s="4">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="10"/>
+      <c r="W21" s="4">
+        <v>17</v>
+      </c>
+      <c r="X21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="10"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -1688,8 +2097,28 @@
       <c r="N22" s="10">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P22" s="4">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="10"/>
+      <c r="W22" s="4">
+        <v>18</v>
+      </c>
+      <c r="X22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="10"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -1726,8 +2155,28 @@
       <c r="N23" s="10">
         <v>101</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P23" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="10"/>
+      <c r="W23" s="4">
+        <v>19</v>
+      </c>
+      <c r="X23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="10"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -1764,8 +2213,28 @@
       <c r="N24" s="10">
         <v>131</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P24" s="4">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="10"/>
+      <c r="W24" s="4">
+        <v>20</v>
+      </c>
+      <c r="X24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="10"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -1802,8 +2271,28 @@
       <c r="N25" s="10">
         <v>112</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P25" s="4">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="10"/>
+      <c r="W25" s="4">
+        <v>21</v>
+      </c>
+      <c r="X25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="10"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -1840,8 +2329,28 @@
       <c r="N26" s="10">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P26" s="4">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="10"/>
+      <c r="W26" s="4">
+        <v>22</v>
+      </c>
+      <c r="X26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="10"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -1878,8 +2387,28 @@
       <c r="N27" s="10">
         <v>139</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P27" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="10"/>
+      <c r="W27" s="4">
+        <v>23</v>
+      </c>
+      <c r="X27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="10"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -1916,8 +2445,28 @@
       <c r="N28" s="10">
         <v>166</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P28" s="4">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="10"/>
+      <c r="W28" s="4">
+        <v>24</v>
+      </c>
+      <c r="X28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="10"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -1954,8 +2503,28 @@
       <c r="N29" s="10">
         <v>110</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P29" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="10"/>
+      <c r="W29" s="4">
+        <v>25</v>
+      </c>
+      <c r="X29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="10"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -1992,8 +2561,28 @@
       <c r="N30" s="10">
         <v>150</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P30" s="4">
+        <v>26</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="10"/>
+      <c r="W30" s="4">
+        <v>26</v>
+      </c>
+      <c r="X30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="10"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -2030,8 +2619,28 @@
       <c r="N31" s="10">
         <v>161</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P31" s="4">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="10"/>
+      <c r="W31" s="4">
+        <v>27</v>
+      </c>
+      <c r="X31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="10"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -2068,8 +2677,28 @@
       <c r="N32" s="10">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P32" s="4">
+        <v>28</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="10"/>
+      <c r="W32" s="4">
+        <v>28</v>
+      </c>
+      <c r="X32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="10"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -2106,8 +2735,28 @@
       <c r="N33" s="10">
         <v>126</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P33" s="4">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="10"/>
+      <c r="W33" s="4">
+        <v>29</v>
+      </c>
+      <c r="X33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="10"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -2144,8 +2793,28 @@
       <c r="N34" s="10">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P34" s="4">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="10"/>
+      <c r="W34" s="4">
+        <v>30</v>
+      </c>
+      <c r="X34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="10"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>31</v>
       </c>
@@ -2182,8 +2851,28 @@
       <c r="N35" s="10">
         <v>126</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P35" s="4">
+        <v>31</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="10"/>
+      <c r="W35" s="4">
+        <v>31</v>
+      </c>
+      <c r="X35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="10"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>32</v>
       </c>
@@ -2220,8 +2909,28 @@
       <c r="N36" s="10">
         <v>137</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P36" s="4">
+        <v>32</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="10"/>
+      <c r="W36" s="4">
+        <v>32</v>
+      </c>
+      <c r="X36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="10"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>33</v>
       </c>
@@ -2258,8 +2967,28 @@
       <c r="N37" s="10">
         <v>137</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P37" s="4">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="10"/>
+      <c r="W37" s="4">
+        <v>33</v>
+      </c>
+      <c r="X37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="10"/>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>34</v>
       </c>
@@ -2296,8 +3025,28 @@
       <c r="N38" s="10">
         <v>130</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P38" s="4">
+        <v>34</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="10"/>
+      <c r="W38" s="4">
+        <v>34</v>
+      </c>
+      <c r="X38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="10"/>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>35</v>
       </c>
@@ -2334,8 +3083,28 @@
       <c r="N39" s="10">
         <v>140</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P39" s="4">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="10"/>
+      <c r="W39" s="4">
+        <v>35</v>
+      </c>
+      <c r="X39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="10"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>36</v>
       </c>
@@ -2372,8 +3141,28 @@
       <c r="N40" s="10">
         <v>150</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P40" s="4">
+        <v>36</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="10"/>
+      <c r="W40" s="4">
+        <v>36</v>
+      </c>
+      <c r="X40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="10"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>37</v>
       </c>
@@ -2410,8 +3199,28 @@
       <c r="N41" s="10">
         <v>128</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P41" s="4">
+        <v>37</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="10"/>
+      <c r="W41" s="4">
+        <v>37</v>
+      </c>
+      <c r="X41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="10"/>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>38</v>
       </c>
@@ -2448,8 +3257,28 @@
       <c r="N42" s="10">
         <v>111</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P42" s="4">
+        <v>38</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="10"/>
+      <c r="W42" s="4">
+        <v>38</v>
+      </c>
+      <c r="X42" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="10"/>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>39</v>
       </c>
@@ -2486,8 +3315,28 @@
       <c r="N43" s="10">
         <v>147</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P43" s="4">
+        <v>39</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="10"/>
+      <c r="W43" s="4">
+        <v>39</v>
+      </c>
+      <c r="X43" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="10"/>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>40</v>
       </c>
@@ -2524,8 +3373,28 @@
       <c r="N44" s="10">
         <v>123</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P44" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="10"/>
+      <c r="W44" s="4">
+        <v>40</v>
+      </c>
+      <c r="X44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="10"/>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>41</v>
       </c>
@@ -2562,8 +3431,28 @@
       <c r="N45" s="10">
         <v>124</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P45" s="4">
+        <v>41</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="10"/>
+      <c r="W45" s="4">
+        <v>41</v>
+      </c>
+      <c r="X45" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="10"/>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>42</v>
       </c>
@@ -2600,8 +3489,28 @@
       <c r="N46" s="10">
         <v>164</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P46" s="4">
+        <v>42</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="10"/>
+      <c r="W46" s="4">
+        <v>42</v>
+      </c>
+      <c r="X46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="10"/>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>43</v>
       </c>
@@ -2638,8 +3547,28 @@
       <c r="N47" s="10">
         <v>125</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P47" s="4">
+        <v>43</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="10"/>
+      <c r="W47" s="4">
+        <v>43</v>
+      </c>
+      <c r="X47" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="10"/>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
         <v>44</v>
       </c>
@@ -2676,8 +3605,28 @@
       <c r="N48" s="10">
         <v>158</v>
       </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P48" s="4">
+        <v>44</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="10"/>
+      <c r="W48" s="4">
+        <v>44</v>
+      </c>
+      <c r="X48" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="10"/>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <v>45</v>
       </c>
@@ -2714,8 +3663,28 @@
       <c r="N49" s="10">
         <v>117</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P49" s="4">
+        <v>45</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="10"/>
+      <c r="W49" s="4">
+        <v>45</v>
+      </c>
+      <c r="X49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="10"/>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
         <v>46</v>
       </c>
@@ -2752,8 +3721,28 @@
       <c r="N50" s="10">
         <v>118</v>
       </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P50" s="4">
+        <v>46</v>
+      </c>
+      <c r="Q50" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="10"/>
+      <c r="W50" s="4">
+        <v>46</v>
+      </c>
+      <c r="X50" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="10"/>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
         <v>47</v>
       </c>
@@ -2790,8 +3779,28 @@
       <c r="N51" s="10">
         <v>123</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P51" s="4">
+        <v>47</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="10"/>
+      <c r="W51" s="4">
+        <v>47</v>
+      </c>
+      <c r="X51" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="10"/>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
         <v>48</v>
       </c>
@@ -2828,8 +3837,28 @@
       <c r="N52" s="10">
         <v>144</v>
       </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P52" s="4">
+        <v>48</v>
+      </c>
+      <c r="Q52" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="10"/>
+      <c r="W52" s="4">
+        <v>48</v>
+      </c>
+      <c r="X52" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="10"/>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <v>49</v>
       </c>
@@ -2866,8 +3895,28 @@
       <c r="N53" s="10">
         <v>141</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P53" s="4">
+        <v>49</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="10"/>
+      <c r="W53" s="4">
+        <v>49</v>
+      </c>
+      <c r="X53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="10"/>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>50</v>
       </c>
@@ -2904,8 +3953,28 @@
       <c r="N54" s="10">
         <v>123</v>
       </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P54" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q54" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="10"/>
+      <c r="W54" s="4">
+        <v>50</v>
+      </c>
+      <c r="X54" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="10"/>
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>51</v>
       </c>
@@ -2942,8 +4011,28 @@
       <c r="N55" s="10">
         <v>131</v>
       </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P55" s="4">
+        <v>51</v>
+      </c>
+      <c r="Q55" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="10"/>
+      <c r="W55" s="4">
+        <v>51</v>
+      </c>
+      <c r="X55" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="10"/>
+    </row>
+    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <v>52</v>
       </c>
@@ -2980,8 +4069,28 @@
       <c r="N56" s="10">
         <v>127</v>
       </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P56" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q56" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="10"/>
+      <c r="W56" s="4">
+        <v>52</v>
+      </c>
+      <c r="X56" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="10"/>
+    </row>
+    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>53</v>
       </c>
@@ -3018,8 +4127,28 @@
       <c r="N57" s="10">
         <v>125</v>
       </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P57" s="4">
+        <v>53</v>
+      </c>
+      <c r="Q57" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="10"/>
+      <c r="W57" s="4">
+        <v>53</v>
+      </c>
+      <c r="X57" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="10"/>
+    </row>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
         <v>54</v>
       </c>
@@ -3056,8 +4185,28 @@
       <c r="N58" s="10">
         <v>136</v>
       </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P58" s="4">
+        <v>54</v>
+      </c>
+      <c r="Q58" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="10"/>
+      <c r="W58" s="4">
+        <v>54</v>
+      </c>
+      <c r="X58" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="10"/>
+    </row>
+    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
         <v>55</v>
       </c>
@@ -3094,8 +4243,28 @@
       <c r="N59" s="10">
         <v>110</v>
       </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P59" s="4">
+        <v>55</v>
+      </c>
+      <c r="Q59" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="10"/>
+      <c r="W59" s="4">
+        <v>55</v>
+      </c>
+      <c r="X59" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="10"/>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
         <v>56</v>
       </c>
@@ -3132,8 +4301,28 @@
       <c r="N60" s="10">
         <v>132</v>
       </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P60" s="4">
+        <v>56</v>
+      </c>
+      <c r="Q60" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="10"/>
+      <c r="W60" s="4">
+        <v>56</v>
+      </c>
+      <c r="X60" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="10"/>
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
         <v>57</v>
       </c>
@@ -3170,8 +4359,28 @@
       <c r="N61" s="10">
         <v>114</v>
       </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P61" s="4">
+        <v>57</v>
+      </c>
+      <c r="Q61" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="10"/>
+      <c r="W61" s="4">
+        <v>57</v>
+      </c>
+      <c r="X61" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="10"/>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
         <v>58</v>
       </c>
@@ -3208,8 +4417,28 @@
       <c r="N62" s="10">
         <v>113</v>
       </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P62" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q62" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="10"/>
+      <c r="W62" s="4">
+        <v>58</v>
+      </c>
+      <c r="X62" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="10"/>
+    </row>
+    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
         <v>59</v>
       </c>
@@ -3246,8 +4475,28 @@
       <c r="N63" s="10">
         <v>164</v>
       </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P63" s="4">
+        <v>59</v>
+      </c>
+      <c r="Q63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="10"/>
+      <c r="W63" s="4">
+        <v>59</v>
+      </c>
+      <c r="X63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="10"/>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
         <v>60</v>
       </c>
@@ -3284,8 +4533,28 @@
       <c r="N64" s="10">
         <v>151</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P64" s="4">
+        <v>60</v>
+      </c>
+      <c r="Q64" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="10"/>
+      <c r="W64" s="4">
+        <v>60</v>
+      </c>
+      <c r="X64" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="10"/>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
         <v>61</v>
       </c>
@@ -3322,8 +4591,28 @@
       <c r="N65" s="10">
         <v>164</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P65" s="4">
+        <v>61</v>
+      </c>
+      <c r="Q65" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="10"/>
+      <c r="W65" s="4">
+        <v>61</v>
+      </c>
+      <c r="X65" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="10"/>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
         <v>62</v>
       </c>
@@ -3360,8 +4649,28 @@
       <c r="N66" s="10">
         <v>155</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P66" s="4">
+        <v>62</v>
+      </c>
+      <c r="Q66" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="10"/>
+      <c r="W66" s="4">
+        <v>62</v>
+      </c>
+      <c r="X66" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
+      <c r="AB66" s="10"/>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
         <v>63</v>
       </c>
@@ -3398,8 +4707,28 @@
       <c r="N67" s="10">
         <v>160</v>
       </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P67" s="4">
+        <v>63</v>
+      </c>
+      <c r="Q67" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="10"/>
+      <c r="W67" s="4">
+        <v>63</v>
+      </c>
+      <c r="X67" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="9"/>
+      <c r="AB67" s="10"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
         <v>64</v>
       </c>
@@ -3436,8 +4765,28 @@
       <c r="N68" s="10">
         <v>103</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P68" s="4">
+        <v>64</v>
+      </c>
+      <c r="Q68" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="10"/>
+      <c r="W68" s="4">
+        <v>64</v>
+      </c>
+      <c r="X68" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="10"/>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
         <v>65</v>
       </c>
@@ -3474,8 +4823,28 @@
       <c r="N69" s="10">
         <v>157</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P69" s="4">
+        <v>65</v>
+      </c>
+      <c r="Q69" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="10"/>
+      <c r="W69" s="4">
+        <v>65</v>
+      </c>
+      <c r="X69" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+      <c r="AB69" s="10"/>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
         <v>66</v>
       </c>
@@ -3512,8 +4881,28 @@
       <c r="N70" s="10">
         <v>111</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P70" s="4">
+        <v>66</v>
+      </c>
+      <c r="Q70" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="10"/>
+      <c r="W70" s="4">
+        <v>66</v>
+      </c>
+      <c r="X70" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
+      <c r="AB70" s="10"/>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
         <v>67</v>
       </c>
@@ -3550,8 +4939,28 @@
       <c r="N71" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P71" s="4">
+        <v>67</v>
+      </c>
+      <c r="Q71" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="10"/>
+      <c r="W71" s="4">
+        <v>67</v>
+      </c>
+      <c r="X71" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="9"/>
+      <c r="AB71" s="10"/>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
         <v>68</v>
       </c>
@@ -3588,8 +4997,28 @@
       <c r="N72" s="10">
         <v>149</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P72" s="4">
+        <v>68</v>
+      </c>
+      <c r="Q72" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="10"/>
+      <c r="W72" s="4">
+        <v>68</v>
+      </c>
+      <c r="X72" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="9"/>
+      <c r="AB72" s="10"/>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>69</v>
       </c>
@@ -3615,19 +5044,39 @@
         <v>76</v>
       </c>
       <c r="K73" s="9">
-        <v>24.993028155516999</v>
+        <v>25.1557698450031</v>
       </c>
       <c r="L73" s="9">
-        <v>0.74091645776765702</v>
+        <v>0.74346413999462801</v>
       </c>
       <c r="M73" s="9">
-        <v>0.11185054895728901</v>
+        <v>0.110539117458584</v>
       </c>
       <c r="N73" s="10">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="P73" s="4">
+        <v>69</v>
+      </c>
+      <c r="Q73" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="10"/>
+      <c r="W73" s="4">
+        <v>69</v>
+      </c>
+      <c r="X73" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="9"/>
+      <c r="AB73" s="10"/>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>70</v>
       </c>
@@ -3664,8 +5113,28 @@
       <c r="N74" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P74" s="4">
+        <v>70</v>
+      </c>
+      <c r="Q74" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="10"/>
+      <c r="W74" s="4">
+        <v>70</v>
+      </c>
+      <c r="X74" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="9"/>
+      <c r="AB74" s="10"/>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
         <v>71</v>
       </c>
@@ -3702,8 +5171,28 @@
       <c r="N75" s="10">
         <v>160</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P75" s="4">
+        <v>71</v>
+      </c>
+      <c r="Q75" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="10"/>
+      <c r="W75" s="4">
+        <v>71</v>
+      </c>
+      <c r="X75" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
+      <c r="AB75" s="10"/>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B76" s="4">
         <v>72</v>
       </c>
@@ -3740,8 +5229,28 @@
       <c r="N76" s="10">
         <v>102</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P76" s="4">
+        <v>72</v>
+      </c>
+      <c r="Q76" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="10"/>
+      <c r="W76" s="4">
+        <v>72</v>
+      </c>
+      <c r="X76" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="10"/>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
         <v>73</v>
       </c>
@@ -3778,8 +5287,28 @@
       <c r="N77" s="10">
         <v>111</v>
       </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P77" s="4">
+        <v>73</v>
+      </c>
+      <c r="Q77" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="10"/>
+      <c r="W77" s="4">
+        <v>73</v>
+      </c>
+      <c r="X77" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+      <c r="AB77" s="10"/>
+    </row>
+    <row r="78" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
         <v>74</v>
       </c>
@@ -3816,8 +5345,28 @@
       <c r="N78" s="10">
         <v>144</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P78" s="4">
+        <v>74</v>
+      </c>
+      <c r="Q78" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="10"/>
+      <c r="W78" s="4">
+        <v>74</v>
+      </c>
+      <c r="X78" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9"/>
+      <c r="AA78" s="9"/>
+      <c r="AB78" s="10"/>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B79" s="4">
         <v>75</v>
       </c>
@@ -3854,8 +5403,28 @@
       <c r="N79" s="10">
         <v>119</v>
       </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P79" s="4">
+        <v>75</v>
+      </c>
+      <c r="Q79" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="10"/>
+      <c r="W79" s="4">
+        <v>75</v>
+      </c>
+      <c r="X79" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="9"/>
+      <c r="AB79" s="10"/>
+    </row>
+    <row r="80" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B80" s="4">
         <v>76</v>
       </c>
@@ -3892,8 +5461,28 @@
       <c r="N80" s="10">
         <v>137</v>
       </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P80" s="4">
+        <v>76</v>
+      </c>
+      <c r="Q80" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="10"/>
+      <c r="W80" s="4">
+        <v>76</v>
+      </c>
+      <c r="X80" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="9"/>
+      <c r="AA80" s="9"/>
+      <c r="AB80" s="10"/>
+    </row>
+    <row r="81" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B81" s="4">
         <v>77</v>
       </c>
@@ -3930,8 +5519,28 @@
       <c r="N81" s="10">
         <v>133</v>
       </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P81" s="4">
+        <v>77</v>
+      </c>
+      <c r="Q81" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="10"/>
+      <c r="W81" s="4">
+        <v>77</v>
+      </c>
+      <c r="X81" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="9"/>
+      <c r="AB81" s="10"/>
+    </row>
+    <row r="82" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B82" s="4">
         <v>78</v>
       </c>
@@ -3968,8 +5577,28 @@
       <c r="N82" s="10">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P82" s="4">
+        <v>78</v>
+      </c>
+      <c r="Q82" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="10"/>
+      <c r="W82" s="4">
+        <v>78</v>
+      </c>
+      <c r="X82" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y82" s="9"/>
+      <c r="Z82" s="9"/>
+      <c r="AA82" s="9"/>
+      <c r="AB82" s="10"/>
+    </row>
+    <row r="83" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B83" s="4">
         <v>79</v>
       </c>
@@ -4006,8 +5635,28 @@
       <c r="N83" s="10">
         <v>144</v>
       </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P83" s="4">
+        <v>79</v>
+      </c>
+      <c r="Q83" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="10"/>
+      <c r="W83" s="4">
+        <v>79</v>
+      </c>
+      <c r="X83" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y83" s="9"/>
+      <c r="Z83" s="9"/>
+      <c r="AA83" s="9"/>
+      <c r="AB83" s="10"/>
+    </row>
+    <row r="84" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B84" s="4">
         <v>80</v>
       </c>
@@ -4044,8 +5693,28 @@
       <c r="N84" s="10">
         <v>120</v>
       </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P84" s="4">
+        <v>80</v>
+      </c>
+      <c r="Q84" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="10"/>
+      <c r="W84" s="4">
+        <v>80</v>
+      </c>
+      <c r="X84" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="9"/>
+      <c r="AB84" s="10"/>
+    </row>
+    <row r="85" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
         <v>81</v>
       </c>
@@ -4082,8 +5751,28 @@
       <c r="N85" s="10">
         <v>135</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P85" s="4">
+        <v>81</v>
+      </c>
+      <c r="Q85" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="10"/>
+      <c r="W85" s="4">
+        <v>81</v>
+      </c>
+      <c r="X85" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y85" s="9"/>
+      <c r="Z85" s="9"/>
+      <c r="AA85" s="9"/>
+      <c r="AB85" s="10"/>
+    </row>
+    <row r="86" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
         <v>82</v>
       </c>
@@ -4120,8 +5809,28 @@
       <c r="N86" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P86" s="4">
+        <v>82</v>
+      </c>
+      <c r="Q86" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="10"/>
+      <c r="W86" s="4">
+        <v>82</v>
+      </c>
+      <c r="X86" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y86" s="9"/>
+      <c r="Z86" s="9"/>
+      <c r="AA86" s="9"/>
+      <c r="AB86" s="10"/>
+    </row>
+    <row r="87" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
         <v>83</v>
       </c>
@@ -4158,8 +5867,28 @@
       <c r="N87" s="10">
         <v>110</v>
       </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P87" s="4">
+        <v>83</v>
+      </c>
+      <c r="Q87" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="10"/>
+      <c r="W87" s="4">
+        <v>83</v>
+      </c>
+      <c r="X87" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y87" s="9"/>
+      <c r="Z87" s="9"/>
+      <c r="AA87" s="9"/>
+      <c r="AB87" s="10"/>
+    </row>
+    <row r="88" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B88" s="4">
         <v>84</v>
       </c>
@@ -4196,8 +5925,28 @@
       <c r="N88" s="10">
         <v>147</v>
       </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P88" s="4">
+        <v>84</v>
+      </c>
+      <c r="Q88" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="10"/>
+      <c r="W88" s="4">
+        <v>84</v>
+      </c>
+      <c r="X88" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y88" s="9"/>
+      <c r="Z88" s="9"/>
+      <c r="AA88" s="9"/>
+      <c r="AB88" s="10"/>
+    </row>
+    <row r="89" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B89" s="4">
         <v>85</v>
       </c>
@@ -4234,8 +5983,28 @@
       <c r="N89" s="10">
         <v>137</v>
       </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P89" s="4">
+        <v>85</v>
+      </c>
+      <c r="Q89" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="10"/>
+      <c r="W89" s="4">
+        <v>85</v>
+      </c>
+      <c r="X89" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y89" s="9"/>
+      <c r="Z89" s="9"/>
+      <c r="AA89" s="9"/>
+      <c r="AB89" s="10"/>
+    </row>
+    <row r="90" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B90" s="4">
         <v>86</v>
       </c>
@@ -4272,8 +6041,28 @@
       <c r="N90" s="10">
         <v>112</v>
       </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P90" s="4">
+        <v>86</v>
+      </c>
+      <c r="Q90" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="10"/>
+      <c r="W90" s="4">
+        <v>86</v>
+      </c>
+      <c r="X90" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y90" s="9"/>
+      <c r="Z90" s="9"/>
+      <c r="AA90" s="9"/>
+      <c r="AB90" s="10"/>
+    </row>
+    <row r="91" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B91" s="4">
         <v>87</v>
       </c>
@@ -4310,8 +6099,28 @@
       <c r="N91" s="10">
         <v>116</v>
       </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P91" s="4">
+        <v>87</v>
+      </c>
+      <c r="Q91" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="10"/>
+      <c r="W91" s="4">
+        <v>87</v>
+      </c>
+      <c r="X91" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y91" s="9"/>
+      <c r="Z91" s="9"/>
+      <c r="AA91" s="9"/>
+      <c r="AB91" s="10"/>
+    </row>
+    <row r="92" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B92" s="4">
         <v>88</v>
       </c>
@@ -4348,8 +6157,28 @@
       <c r="N92" s="10">
         <v>126</v>
       </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P92" s="4">
+        <v>88</v>
+      </c>
+      <c r="Q92" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="10"/>
+      <c r="W92" s="4">
+        <v>88</v>
+      </c>
+      <c r="X92" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y92" s="9"/>
+      <c r="Z92" s="9"/>
+      <c r="AA92" s="9"/>
+      <c r="AB92" s="10"/>
+    </row>
+    <row r="93" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B93" s="4">
         <v>89</v>
       </c>
@@ -4386,8 +6215,28 @@
       <c r="N93" s="10">
         <v>131</v>
       </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P93" s="4">
+        <v>89</v>
+      </c>
+      <c r="Q93" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="10"/>
+      <c r="W93" s="4">
+        <v>89</v>
+      </c>
+      <c r="X93" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y93" s="9"/>
+      <c r="Z93" s="9"/>
+      <c r="AA93" s="9"/>
+      <c r="AB93" s="10"/>
+    </row>
+    <row r="94" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
         <v>90</v>
       </c>
@@ -4424,8 +6273,28 @@
       <c r="N94" s="10">
         <v>140</v>
       </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P94" s="4">
+        <v>90</v>
+      </c>
+      <c r="Q94" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="U94" s="10"/>
+      <c r="W94" s="4">
+        <v>90</v>
+      </c>
+      <c r="X94" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y94" s="9"/>
+      <c r="Z94" s="9"/>
+      <c r="AA94" s="9"/>
+      <c r="AB94" s="10"/>
+    </row>
+    <row r="95" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B95" s="4">
         <v>91</v>
       </c>
@@ -4462,8 +6331,28 @@
       <c r="N95" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P95" s="4">
+        <v>91</v>
+      </c>
+      <c r="Q95" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="10"/>
+      <c r="W95" s="4">
+        <v>91</v>
+      </c>
+      <c r="X95" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y95" s="9"/>
+      <c r="Z95" s="9"/>
+      <c r="AA95" s="9"/>
+      <c r="AB95" s="10"/>
+    </row>
+    <row r="96" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B96" s="4">
         <v>92</v>
       </c>
@@ -4500,8 +6389,28 @@
       <c r="N96" s="10">
         <v>166</v>
       </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P96" s="4">
+        <v>92</v>
+      </c>
+      <c r="Q96" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="10"/>
+      <c r="W96" s="4">
+        <v>92</v>
+      </c>
+      <c r="X96" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y96" s="9"/>
+      <c r="Z96" s="9"/>
+      <c r="AA96" s="9"/>
+      <c r="AB96" s="10"/>
+    </row>
+    <row r="97" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B97" s="4">
         <v>93</v>
       </c>
@@ -4538,8 +6447,28 @@
       <c r="N97" s="10">
         <v>130</v>
       </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P97" s="4">
+        <v>93</v>
+      </c>
+      <c r="Q97" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="10"/>
+      <c r="W97" s="4">
+        <v>93</v>
+      </c>
+      <c r="X97" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y97" s="9"/>
+      <c r="Z97" s="9"/>
+      <c r="AA97" s="9"/>
+      <c r="AB97" s="10"/>
+    </row>
+    <row r="98" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B98" s="4">
         <v>94</v>
       </c>
@@ -4576,8 +6505,28 @@
       <c r="N98" s="10">
         <v>119</v>
       </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P98" s="4">
+        <v>94</v>
+      </c>
+      <c r="Q98" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="10"/>
+      <c r="W98" s="4">
+        <v>94</v>
+      </c>
+      <c r="X98" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y98" s="9"/>
+      <c r="Z98" s="9"/>
+      <c r="AA98" s="9"/>
+      <c r="AB98" s="10"/>
+    </row>
+    <row r="99" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B99" s="4">
         <v>95</v>
       </c>
@@ -4614,8 +6563,28 @@
       <c r="N99" s="10">
         <v>136</v>
       </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P99" s="4">
+        <v>95</v>
+      </c>
+      <c r="Q99" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="10"/>
+      <c r="W99" s="4">
+        <v>95</v>
+      </c>
+      <c r="X99" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y99" s="9"/>
+      <c r="Z99" s="9"/>
+      <c r="AA99" s="9"/>
+      <c r="AB99" s="10"/>
+    </row>
+    <row r="100" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B100" s="4">
         <v>96</v>
       </c>
@@ -4652,8 +6621,28 @@
       <c r="N100" s="10">
         <v>104</v>
       </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P100" s="4">
+        <v>96</v>
+      </c>
+      <c r="Q100" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="10"/>
+      <c r="W100" s="4">
+        <v>96</v>
+      </c>
+      <c r="X100" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y100" s="9"/>
+      <c r="Z100" s="9"/>
+      <c r="AA100" s="9"/>
+      <c r="AB100" s="10"/>
+    </row>
+    <row r="101" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B101" s="4">
         <v>97</v>
       </c>
@@ -4690,8 +6679,28 @@
       <c r="N101" s="10">
         <v>116</v>
       </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P101" s="4">
+        <v>97</v>
+      </c>
+      <c r="Q101" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="10"/>
+      <c r="W101" s="4">
+        <v>97</v>
+      </c>
+      <c r="X101" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y101" s="9"/>
+      <c r="Z101" s="9"/>
+      <c r="AA101" s="9"/>
+      <c r="AB101" s="10"/>
+    </row>
+    <row r="102" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B102" s="4">
         <v>98</v>
       </c>
@@ -4728,8 +6737,28 @@
       <c r="N102" s="10">
         <v>123</v>
       </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P102" s="4">
+        <v>98</v>
+      </c>
+      <c r="Q102" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="10"/>
+      <c r="W102" s="4">
+        <v>98</v>
+      </c>
+      <c r="X102" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y102" s="9"/>
+      <c r="Z102" s="9"/>
+      <c r="AA102" s="9"/>
+      <c r="AB102" s="10"/>
+    </row>
+    <row r="103" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B103" s="4">
         <v>99</v>
       </c>
@@ -4766,8 +6795,28 @@
       <c r="N103" s="10">
         <v>130</v>
       </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P103" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q103" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="10"/>
+      <c r="W103" s="4">
+        <v>99</v>
+      </c>
+      <c r="X103" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y103" s="9"/>
+      <c r="Z103" s="9"/>
+      <c r="AA103" s="9"/>
+      <c r="AB103" s="10"/>
+    </row>
+    <row r="104" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B104" s="4">
         <v>100</v>
       </c>
@@ -4804,8 +6853,28 @@
       <c r="N104" s="10">
         <v>152</v>
       </c>
-    </row>
-    <row r="105" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P104" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q104" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="10"/>
+      <c r="W104" s="4">
+        <v>100</v>
+      </c>
+      <c r="X104" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y104" s="9"/>
+      <c r="Z104" s="9"/>
+      <c r="AA104" s="9"/>
+      <c r="AB104" s="10"/>
+    </row>
+    <row r="105" spans="2:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="4">
         <v>101</v>
       </c>
@@ -4842,12 +6911,32 @@
       <c r="N105" s="7">
         <v>128</v>
       </c>
-    </row>
-    <row r="106" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="25" t="s">
+      <c r="P105" s="4">
+        <v>101</v>
+      </c>
+      <c r="Q105" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="7"/>
+      <c r="W105" s="4">
+        <v>101</v>
+      </c>
+      <c r="X105" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y105" s="9"/>
+      <c r="Z105" s="9"/>
+      <c r="AA105" s="9"/>
+      <c r="AB105" s="7"/>
+    </row>
+    <row r="106" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C106" s="26"/>
+      <c r="C106" s="24"/>
       <c r="D106" s="14">
         <f>SUMPRODUCT(D5:D105, G5:G105) / SUM(G5:G105)</f>
         <v>26.357277767738239</v>
@@ -4864,29 +6953,75 @@
         <f>SUM(G5:G105)</f>
         <v>13308</v>
       </c>
-      <c r="I106" s="27" t="s">
+      <c r="I106" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J106" s="28"/>
+      <c r="J106" s="26"/>
       <c r="K106" s="12">
         <f>SUMPRODUCT(K5:K105, N5:N105) / SUM(N5:N105)</f>
-        <v>27.08109224184868</v>
+        <v>27.083175088061051</v>
       </c>
       <c r="L106" s="12">
         <f>SUMPRODUCT(L5:L105, N5:N105) / SUM(N5:N105)</f>
-        <v>0.80355994543225961</v>
+        <v>0.80360155560175661</v>
       </c>
       <c r="M106" s="12">
         <f>SUMPRODUCT(M5:M105, N5:N105) / SUM(N5:N105)</f>
-        <v>8.6757895852994274E-2</v>
+        <v>8.6738626919964285E-2</v>
       </c>
       <c r="N106" s="13">
         <f>SUM(N5:N105)</f>
-        <v>13312</v>
+        <v>13308</v>
+      </c>
+      <c r="P106" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q106" s="26"/>
+      <c r="R106" s="12">
+        <f>SUMPRODUCT(R5:R105, U5:U105) / SUM(U5:U105)</f>
+        <v>32.485680208523803</v>
+      </c>
+      <c r="S106" s="12">
+        <f>SUMPRODUCT(S5:S105, U5:U105) / SUM(U5:U105)</f>
+        <v>0.91100807724152089</v>
+      </c>
+      <c r="T106" s="12">
+        <f>SUMPRODUCT(T5:T105, U5:U105) / SUM(U5:U105)</f>
+        <v>3.4499770048389701E-2</v>
+      </c>
+      <c r="U106" s="13">
+        <f>SUM(U5:U105)</f>
+        <v>145</v>
+      </c>
+      <c r="W106" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="X106" s="26"/>
+      <c r="Y106" s="12">
+        <f>SUMPRODUCT(Y5:Y105, AB5:AB105) / SUM(AB5:AB105)</f>
+        <v>35.864016585740501</v>
+      </c>
+      <c r="Z106" s="12">
+        <f>SUMPRODUCT(Z5:Z105, AB5:AB105) / SUM(AB5:AB105)</f>
+        <v>0.94276923109155197</v>
+      </c>
+      <c r="AA106" s="12">
+        <f>SUMPRODUCT(AA5:AA105, AB5:AB105) / SUM(AB5:AB105)</f>
+        <v>1.52734606538533E-2</v>
+      </c>
+      <c r="AB106" s="13">
+        <f>SUM(AB5:AB105)</f>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W106:X106"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B106:C106"/>
@@ -4895,6 +7030,266 @@
     <mergeCell ref="I106:J106"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D105 K5:K105">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D105">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E105 L5:L105">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E105">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F105">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K105">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L105">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M105 F5:F105">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M105">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:R105 R5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S105">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:R105 R5">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S105">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T105">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T105">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F105 M5:M105 T5:T105">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7:Y105 Y5">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z5:Z105">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7:Y105 Y5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z5:Z105">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA5:AA105">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA5:AA105">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA5:AA105">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4904,78 +7299,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D105">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E105 L5:L105">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E105">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F105">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K105">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L105">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M105 F5:F105">
+  <conditionalFormatting sqref="AA5:AA105 T5:T105 M5:M105 F5:F105">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M105">
-    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4991,10 +7316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C0F618-43EB-4A2F-80D8-E7BEF51DC5EC}">
-  <dimension ref="B6:F19"/>
+  <dimension ref="B7:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5007,89 +7332,110 @@
     <col min="7" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="28">
         <v>26.357277767738239</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="28">
         <v>0.7542624538657573</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="28">
         <v>0.11213572951695769</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34" t="s">
+    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="34">
-        <v>27.08109224184868</v>
-      </c>
-      <c r="E9" s="34">
-        <v>0.80355994543225961</v>
-      </c>
-      <c r="F9" s="35">
-        <v>8.6757895852994274E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
+      <c r="D9" s="28">
+        <v>27.083175088061051</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0.80360155560175661</v>
+      </c>
+      <c r="F9" s="28">
+        <v>8.6738626919964285E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
+      <c r="B15" s="17"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
+      <c r="B19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B8:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
